--- a/lab2_aed/lab2.xlsx
+++ b/lab2_aed/lab2.xlsx
@@ -8,35 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalo/studious-tribble/lab2_aed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3956E3-0069-B843-B038-932E98C579BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644EE284-AE10-9846-9960-A89FE4309AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2B21959B-35B5-49A9-925C-A901A10AF81D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2B21959B-35B5-49A9-925C-A901A10AF81D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Folha1!$B$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Folha1!$B$20:$B$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Folha1!$C$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Folha1!$C$20:$C$34</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Folha1!$D$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Folha1!$D$20:$D$34</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Folha1!$E$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Folha1!$E$20:$E$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Folha1!$F$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Folha1!$F$20:$F$34</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Folha1!$B$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Folha1!$B$20:$B$34</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Folha1!$C$19</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Folha1!$C$20:$C$34</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Folha1!$D$19</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Folha1!$D$20:$D$34</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Folha1!$E$19</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Folha1!$E$20:$E$34</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">Folha1!$F$19</definedName>
-    <definedName name="_xlchart.v2.19" hidden="1">Folha1!$F$20:$F$34</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -220,11 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,13 +1990,13 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -2037,26 +2015,26 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
@@ -2118,7 +2096,9 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
@@ -2170,10 +2150,12 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
@@ -2228,7 +2210,9 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>165</v>
+      </c>
       <c r="D5" s="1">
         <v>1000</v>
       </c>
@@ -2283,7 +2267,9 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1639</v>
+      </c>
       <c r="D6" s="1">
         <v>10000</v>
       </c>
@@ -2338,7 +2324,9 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>16256</v>
+      </c>
       <c r="D7" s="1">
         <v>100000</v>
       </c>
@@ -2617,7 +2605,7 @@
       <c r="D12" s="1">
         <v>200000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>167760</v>
       </c>
       <c r="F12" s="1">
@@ -2720,7 +2708,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1"/>
@@ -2775,7 +2763,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1"/>
@@ -2960,22 +2948,22 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -2984,16 +2972,16 @@
       <c r="C20" s="1">
         <v>100</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>33</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>32</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>46</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
@@ -3008,10 +2996,10 @@
       <c r="E21" s="1">
         <v>383</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>526</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
@@ -3026,10 +3014,10 @@
       <c r="E22" s="1">
         <v>4121</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>5461</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
@@ -3044,10 +3032,10 @@
       <c r="E23" s="1">
         <v>42542</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>54800</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -3062,10 +3050,10 @@
       <c r="E24" s="1">
         <v>431783</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>553085</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -3080,10 +3068,10 @@
       <c r="E25" s="1">
         <v>67</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>94</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
@@ -3098,10 +3086,10 @@
       <c r="E26" s="1">
         <v>772</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1050</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
@@ -3116,10 +3104,10 @@
       <c r="E27" s="1">
         <v>8516</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>11088</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
@@ -3134,10 +3122,10 @@
       <c r="E28" s="1">
         <v>85153</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>110384</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -3152,10 +3140,10 @@
       <c r="E29" s="1">
         <v>865847</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>1106682</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
@@ -3170,10 +3158,10 @@
       <c r="E30" s="1">
         <v>189</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>258</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
@@ -3188,10 +3176,10 @@
       <c r="E31" s="1">
         <v>2076</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>2696</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -3206,10 +3194,10 @@
       <c r="E32" s="1">
         <v>21094</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>27446</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
@@ -3224,10 +3212,10 @@
       <c r="E33" s="1">
         <v>215308</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>276849</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
@@ -3242,10 +3230,10 @@
       <c r="E34" s="1">
         <v>2159282</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>2765488</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>

--- a/lab2_aed/lab2.xlsx
+++ b/lab2_aed/lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalo/studious-tribble/lab2_aed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644EE284-AE10-9846-9960-A89FE4309AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDC201-905F-B342-8C02-8BE996F23EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2B21959B-35B5-49A9-925C-A901A10AF81D}"/>
   </bookViews>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9469E83B-CB91-4D51-8474-8A853C7ABF9F}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2381,7 +2381,9 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
       <c r="D8" s="1">
         <v>20</v>
       </c>
@@ -2436,7 +2438,9 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
       <c r="D9" s="1">
         <v>200</v>
       </c>
@@ -2491,7 +2495,9 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>316</v>
+      </c>
       <c r="D10" s="1">
         <v>2000</v>
       </c>
@@ -2546,7 +2552,9 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>3206</v>
+      </c>
       <c r="D11" s="1">
         <v>20000</v>
       </c>
@@ -2601,7 +2609,9 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>32240</v>
+      </c>
       <c r="D12" s="1">
         <v>200000</v>
       </c>
@@ -2656,7 +2666,9 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
       <c r="D13" s="1">
         <v>50</v>
       </c>
@@ -2711,7 +2723,9 @@
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>83</v>
+      </c>
       <c r="D14" s="1">
         <v>500</v>
       </c>
@@ -2766,7 +2780,9 @@
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>797</v>
+      </c>
       <c r="D15" s="1">
         <v>5000</v>
       </c>
@@ -2821,7 +2837,9 @@
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>8188</v>
+      </c>
       <c r="D16" s="1">
         <v>50000</v>
       </c>
@@ -2876,7 +2894,9 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>80997</v>
+      </c>
       <c r="D17" s="1">
         <v>500000</v>
       </c>

--- a/lab2_aed/lab2.xlsx
+++ b/lab2_aed/lab2.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goncalo/studious-tribble/lab2_aed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDC201-905F-B342-8C02-8BE996F23EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF46443-2175-2C46-9D8F-2044CABF0109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{2B21959B-35B5-49A9-925C-A901A10AF81D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Folha1!$C$3:$C$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Folha1!$H$3:$H$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Ficheiro</t>
   </si>
@@ -128,6 +132,9 @@
   <si>
     <t>cwqu</t>
   </si>
+  <si>
+    <t>Total/N</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,11 +193,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,6 +255,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,6 +304,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>All</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1093,7 +1186,2034 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Union</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4982037129079796E-2"/>
+                  <c:y val="-3.3263095634172492E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$K$3:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2365498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227841145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9009288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>885076493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>554042</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53644724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5501864577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-623E-0241-A134-604A1DF55B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1128679375"/>
+        <c:axId val="1375477232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1128679375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1375477232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1375477232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128679375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Weight</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Quick Union</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6784682490228291E-2"/>
+                  <c:y val="-8.2548270818868091E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$O$3:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.357142857142858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.975757575757576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.95607077486272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.561454232283463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.949367088607595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.560511540860887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.856296526054592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.012048192771083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.466750313676286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.295554469956034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.658789831722164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11F7-DD4D-985D-E1F7F08FD6D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1370771632"/>
+        <c:axId val="1980851936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1370771632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980851936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1980851936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370771632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Compressed Weighted Quick Union</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1407505370627786"/>
+                  <c:y val="-2.3851028940331802E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>419003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$R$3:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>553085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1106682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>276849</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2765488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30B7-F44C-AE1C-2A8307DAC6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1390312592"/>
+        <c:axId val="1113038271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1390312592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113038271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1113038271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1390312592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9943363916672603E-2"/>
+                  <c:y val="-8.5830781568970546E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>837000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83630000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8374600000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3372000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335920000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33552400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21025000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2090700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209502500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92D1-4648-B063-CEA55C57703F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1113298703"/>
+        <c:axId val="1113300351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1113298703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113300351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1113300351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113298703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1649,6 +3769,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1682,6 +5866,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B98742B-B8A0-C843-BF71-8B4033972978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642E7ABC-00CA-F44A-A777-A74ABB4A63B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FC2103-5EEA-3E4E-8527-0DB7C0CA4C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280811</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAB3339-AD23-6E42-AB85-477C30F7A6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1987,10 +6315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9469E83B-CB91-4D51-8474-8A853C7ABF9F}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2007,9 +6335,10 @@
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2025,20 +6354,21 @@
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2080,18 +6410,23 @@
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2136,19 +6471,26 @@
         <v>32</v>
       </c>
       <c r="O3" s="1">
+        <f>N3/C3</f>
+        <v>16</v>
+      </c>
+      <c r="P3" s="1">
         <v>7</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>39</v>
       </c>
-      <c r="Q3" s="1">
-        <f>O3+P3</f>
+      <c r="R3" s="1">
+        <f>P3+Q3</f>
         <v>46</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <f>R3/C3</f>
+        <v>23</v>
+      </c>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -2189,23 +6531,30 @@
         <v>258</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N17" si="2">L4+M4</f>
+        <f>L4+M4</f>
         <v>383</v>
       </c>
       <c r="O4" s="1">
+        <f t="shared" ref="O4:O17" si="2">N4/C4</f>
+        <v>27.357142857142858</v>
+      </c>
+      <c r="P4" s="1">
         <v>110</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>416</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q17" si="3">O4+P4</f>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R17" si="3">P4+Q4</f>
         <v>526</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S17" si="4">R4/C4</f>
+        <v>37.571428571428569</v>
+      </c>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -2246,23 +6595,30 @@
         <v>2505</v>
       </c>
       <c r="N5" s="1">
+        <f>L5+M5</f>
+        <v>4121</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="2"/>
-        <v>4121</v>
-      </c>
-      <c r="O5" s="1">
+        <v>24.975757575757576</v>
+      </c>
+      <c r="P5" s="1">
         <v>1322</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>4139</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <f t="shared" si="3"/>
         <v>5461</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <f t="shared" si="4"/>
+        <v>33.096969696969694</v>
+      </c>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -2303,23 +6659,30 @@
         <v>25083</v>
       </c>
       <c r="N6" s="1">
+        <f>L6+M6</f>
+        <v>42542</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>42542</v>
-      </c>
-      <c r="O6" s="1">
+        <v>25.95607077486272</v>
+      </c>
+      <c r="P6" s="1">
         <v>13314</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>41486</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="3"/>
         <v>54800</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <f t="shared" si="4"/>
+        <v>33.435021354484441</v>
+      </c>
+      <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -2360,23 +6723,30 @@
         <v>251232</v>
       </c>
       <c r="N7" s="1">
+        <f>L7+M7</f>
+        <v>431783</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="2"/>
-        <v>431783</v>
-      </c>
-      <c r="O7" s="1">
+        <v>26.561454232283463</v>
+      </c>
+      <c r="P7" s="1">
         <v>135553</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>417532</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="3"/>
         <v>553085</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <f t="shared" si="4"/>
+        <v>34.0234375</v>
+      </c>
+      <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -2417,23 +6787,30 @@
         <v>48</v>
       </c>
       <c r="N8" s="1">
+        <f>L8+M8</f>
+        <v>67</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="O8" s="1">
+        <v>16.75</v>
+      </c>
+      <c r="P8" s="1">
         <v>19</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>75</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
+      <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -2474,23 +6851,30 @@
         <v>510</v>
       </c>
       <c r="N9" s="1">
+        <f>L9+M9</f>
+        <v>772</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="2"/>
-        <v>772</v>
-      </c>
-      <c r="O9" s="1">
+        <v>25.733333333333334</v>
+      </c>
+      <c r="P9" s="1">
         <v>226</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>824</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -2531,23 +6915,30 @@
         <v>5052</v>
       </c>
       <c r="N10" s="1">
+        <f>L10+M10</f>
+        <v>8516</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="2"/>
-        <v>8516</v>
-      </c>
-      <c r="O10" s="1">
+        <v>26.949367088607595</v>
+      </c>
+      <c r="P10" s="1">
         <v>2686</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>8402</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="3"/>
         <v>11088</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <f t="shared" si="4"/>
+        <v>35.088607594936711</v>
+      </c>
+      <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -2588,23 +6979,30 @@
         <v>50382</v>
       </c>
       <c r="N11" s="1">
+        <f>L11+M11</f>
+        <v>85153</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
-        <v>85153</v>
-      </c>
-      <c r="O11" s="1">
+        <v>26.560511540860887</v>
+      </c>
+      <c r="P11" s="1">
         <v>26783</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>83601</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="3"/>
         <v>110384</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <f t="shared" si="4"/>
+        <v>34.430442919525888</v>
+      </c>
+      <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -2645,23 +7043,30 @@
         <v>503280</v>
       </c>
       <c r="N12" s="1">
+        <f>L12+M12</f>
+        <v>865847</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="2"/>
-        <v>865847</v>
-      </c>
-      <c r="O12" s="1">
+        <v>26.856296526054592</v>
+      </c>
+      <c r="P12" s="1">
         <v>270754</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>835928</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="3"/>
         <v>1106682</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <f t="shared" si="4"/>
+        <v>34.326364764267993</v>
+      </c>
+      <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -2702,23 +7107,30 @@
         <v>123</v>
       </c>
       <c r="N13" s="1">
+        <f>L13+M13</f>
+        <v>189</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="2"/>
-        <v>189</v>
-      </c>
-      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1">
         <v>59</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>199</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <f t="shared" si="4"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -2759,23 +7171,30 @@
         <v>1251</v>
       </c>
       <c r="N14" s="1">
+        <f>L14+M14</f>
+        <v>2076</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="2"/>
-        <v>2076</v>
-      </c>
-      <c r="O14" s="1">
+        <v>25.012048192771083</v>
+      </c>
+      <c r="P14" s="1">
         <v>654</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>2042</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="3"/>
         <v>2696</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <f t="shared" si="4"/>
+        <v>32.481927710843372</v>
+      </c>
+      <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -2816,23 +7235,30 @@
         <v>12609</v>
       </c>
       <c r="N15" s="1">
+        <f>L15+M15</f>
+        <v>21094</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="2"/>
-        <v>21094</v>
-      </c>
-      <c r="O15" s="1">
+        <v>26.466750313676286</v>
+      </c>
+      <c r="P15" s="1">
         <v>6621</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>20825</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="3"/>
         <v>27446</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <f t="shared" si="4"/>
+        <v>34.436637390213299</v>
+      </c>
+      <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -2873,23 +7299,30 @@
         <v>125436</v>
       </c>
       <c r="N16" s="1">
+        <f>L16+M16</f>
+        <v>215308</v>
+      </c>
+      <c r="O16" s="1">
         <f t="shared" si="2"/>
-        <v>215308</v>
-      </c>
-      <c r="O16" s="1">
+        <v>26.295554469956034</v>
+      </c>
+      <c r="P16" s="1">
         <v>68389</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>208460</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="3"/>
         <v>276849</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <f t="shared" si="4"/>
+        <v>33.81155349291646</v>
+      </c>
+      <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -2930,23 +7363,30 @@
         <v>1257009</v>
       </c>
       <c r="N17" s="1">
+        <f>L17+M17</f>
+        <v>2159282</v>
+      </c>
+      <c r="O17" s="1">
         <f t="shared" si="2"/>
-        <v>2159282</v>
-      </c>
-      <c r="O17" s="1">
+        <v>26.658789831722164</v>
+      </c>
+      <c r="P17" s="1">
         <v>677749</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>2087739</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="3"/>
         <v>2765488</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <f t="shared" si="4"/>
+        <v>34.143091719446396</v>
+      </c>
+      <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2966,8 +7406,9 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2985,7 +7426,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>10</v>
       </c>
@@ -3003,7 +7444,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>100</v>
       </c>
@@ -3021,7 +7462,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>1000</v>
       </c>
@@ -3039,7 +7480,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>10000</v>
       </c>
@@ -3057,7 +7498,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>100000</v>
       </c>
@@ -3075,7 +7516,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -3093,7 +7534,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>200</v>
       </c>
@@ -3111,7 +7552,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>2000</v>
       </c>
@@ -3129,7 +7570,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>20000</v>
       </c>
@@ -3147,7 +7588,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>200000</v>
       </c>
@@ -3165,7 +7606,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>50</v>
       </c>
@@ -3183,7 +7624,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>500</v>
       </c>
@@ -3201,7 +7642,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>5000</v>
       </c>
@@ -3264,8 +7705,8 @@
   <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
